--- a/TestResults/ScriptPut.xlsx
+++ b/TestResults/ScriptPut.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="132">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -50,7 +50,7 @@
     <t>TC_01</t>
   </si>
   <si>
-    <t>Validate that the Script service is successfully created when valid values are passed for all attributes in JSON Request.</t>
+    <t>Validate that the Script service is successfully updated when valid values are passed for all attributes in JSON Request.</t>
   </si>
   <si>
     <t>Put</t>
@@ -64,23 +64,29 @@
 	},
 	"refScript":
 	{
-		"scrptCd":"Test",
-		"scrptNm":"TestName",
-		"scrptDesc":"TestScript"
+		"scriptCode":"LAN",
+		"scriptName":"Lang",
+		"scriptDescription":"Language",
+		"effectiveDate":"2021-07-10",
+		"expirationDate":"2021-07-31"
 	}
 }</t>
   </si>
   <si>
-    <t xml:space="preserve">Input_ScriptCode: Test
-Input_ScriptName: TestName
-Input_ScriptDesc: TestScript
+    <t xml:space="preserve">Input_ScriptCode: LAN
+Input_ScriptName: Lang
+Input_ScriptDescription: Language
+Input_effectiveDate: 2021-07-10
+Input_expirationDate: 2021-07-31
 Input_LastUpdateUserName: Automation
 </t>
   </si>
   <si>
-    <t xml:space="preserve">DB_ScriptCode: Test
-DB_ScriptName: TestName
-DB_ScriptDesc: TestScript
+    <t xml:space="preserve">DB_ScriptCode: LAN
+DB_ScriptName: Lang
+DB_ScriptDescription: Language
+DB_effectiveDate: 2021-07-10
+DB_expirationDate: 2021-07-31
 DB_LastUpdateUserName: Automation
 </t>
   </si>
@@ -97,16 +103,19 @@
 	{
 		"userName":"Automation",
 		"version":"1.0.0",
+		"transactionId":"c0359fbd-a0d7-40f6-9e4a-2439e10ae58e",
+		"timeStamp":"2020-06-19 08:46:58",
+		"statusCode":"200",
 		"message":
 		{
 			"status":"SUCCESS",
-			"internalMessage":"REFSCRIPT Details successfully updated with scrptCd :Test",
+			"internalMessage":"REFSCRIPT Details successfully updated with scriptCode :LAN",
 			"data":null
 		}
 	},
 	"data":
 	{
-		"scrptCd":"Test"
+		"scriptCode":"LAN"
 	}
 }</t>
   </si>
@@ -115,6 +124,1152 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>Audit Table Validation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_ScriptCode: LAN
+Input_ScriptName: Lang
+Input_ScriptDescription: Language
+Input_effectiveDate: 2021-07-10
+Input_expirationDate: 2021-07-31
+Input_LastUpdateUserName: Automation
+Expected RevisionType CD:1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB_ScriptCode: LAN
+DB_ScriptName: Lang
+DB_ScriptDescription: Language
+DB_effectiveDate: 2021-07-10
+DB_expirationDate: 2021-07-31
+DB_LastUpdateUserName: Automation
+DB_RevisionType CD:1
+</t>
+  </si>
+  <si>
+    <t>Audit Table validation</t>
+  </si>
+  <si>
+    <t>TC_21</t>
+  </si>
+  <si>
+    <t>Verify the JMS-PASSED queue after the all attributes PUT request sent</t>
+  </si>
+  <si>
+    <t>JMS</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_scriptCode: LAN
+DB_scriptCode: LAN
+Response_scriptName: Lang
+DB_scriptName: Lang
+Response_scriptDescription: Language
+DB_scriptDescription: Language
+Input_effectiveDate: 2021-07-10
+DB_effectiveDate: 2021-07-10
+Input_expirationDate: 2021-07-31
+DB_expirationDate: 2021-07-31
+</t>
+  </si>
+  <si>
+    <t>TC_02</t>
+  </si>
+  <si>
+    <t>Validate that the Script service is not updated when the Script Code is empty in JSON Request.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"refScript":
+	{
+		"scriptCode":"",
+		"scriptName":"TestAuto",
+		"scriptDescription":"TestDesc",
+		"effectiveDate":"2021-07-10",
+		"expirationDate":"2021-07-31"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_ScriptCode: 
+Input_ScriptName: TestAuto
+Input_ScriptDescription: TestDesc
+Input_effectiveDate: 2021-07-10
+Input_expirationDate: 2021-07-31
+</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 400 Bad Request</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"691bb4f8-a6ff-4106-900a-5a7950942aba",
+		"timeStamp":"2020-06-19 08:47:13",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"scriptCode",
+			"message":" is a required field"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_03</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the empty value is passed in JSON for scrptNm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"refScript":
+	{
+		"scriptCode":"Scrpc",
+		"scriptName":"",
+		"scriptDescription":"Used in more than 25 countries",
+		"effectiveDate":"2021-07-10",
+		"expirationDate":"2021-07-31"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_ScriptCode: Scrpc
+Input_ScriptName: 
+Input_ScriptDescription: Used in more than 25 countries
+Input_effectiveDate: 2021-07-10
+Input_expirationDate: 2021-07-31
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"b9f9ec4d-2bd0-4546-a9dd-46817b5cf780",
+		"timeStamp":"2020-06-19 08:47:14",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"scriptName",
+			"message":" is a required field"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_04</t>
+  </si>
+  <si>
+    <t>Verify that the Script service is successfully updated when the empty value is passed in JSON for scrptDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"refScript":
+	{
+		"scriptCode":"LAN",
+		"scriptName":"Lang",
+		"scriptDescription":"",
+		"effectiveDate":"2021-07-10",
+		"expirationDate":"2021-07-31"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_ScriptCode: LAN
+Input_ScriptName: Lang
+Input_ScriptDescription: 
+Input_effectiveDate: 2021-07-10
+Input_expirationDate: 2021-07-31
+Input_LastUpdateUserName: Automation
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB_ScriptCode: LAN
+DB_ScriptName: Lang
+DB_ScriptDescription: 
+DB_effectiveDate: 2021-07-10
+DB_expirationDate: 2021-07-31
+DB_LastUpdateUserName: Automation
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation",
+		"version":"1.0.0",
+		"transactionId":"24af96bf-ff9a-464f-94ac-4598d4f1cf1e",
+		"timeStamp":"2020-06-19 08:47:16",
+		"statusCode":"200",
+		"message":
+		{
+			"status":"SUCCESS",
+			"internalMessage":"REFSCRIPT Details successfully updated with scriptCode :LAN",
+			"data":null
+		}
+	},
+	"data":
+	{
+		"scriptCode":"LAN"
+	}
+}</t>
+  </si>
+  <si>
+    <t>TC_05</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the meta data section is not passed in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"refScript":
+	{
+		"scriptCode":"Scrpc",
+		"scriptName":"Tamil up",
+		"scriptDescription":"Used in more than 25 countries",
+		"effectiveDate":"2021-07-10",
+		"expirationDate":"2021-07-31"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_ScriptCode: Scrpc
+Input_ScriptName: Tamil up
+Input_ScriptDescription: Used in more than 25 countries
+Input_effectiveDate: 2021-07-10
+Input_expirationDate: 2021-07-31
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"051c9e7a-2c1c-425f-8497-2aa3de17387c",
+		"timeStamp":"2020-06-19 08:47:18",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"meta",
+			"message":" is a required field"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_06</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the scrptCd attribute is not passed in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"refScript":
+	{
+		"scriptName":"Tamil up",
+		"scriptDescription":"Used in more than 25 countries",
+		"effectiveDate":"2021-07-10",
+		"expirationDate":"2021-07-31"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_ScriptCode: 
+Input_ScriptName: Tamil up
+Input_ScriptDescription: Used in more than 25 countries
+Input_effectiveDate: 2021-07-10
+Input_expirationDate: 2021-07-31
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"c94dad94-3885-40c3-bdd1-b28afae34ac6",
+		"timeStamp":"2020-06-19 08:47:20",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"scriptCode",
+			"message":" is a required field"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_07</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the scrptNm attribute is not passed in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"refScript":
+	{
+		"scriptCode":"Scrpc",
+		"scriptDescription":"TestScript",
+		"effectiveDate":"2021-07-10",
+		"expirationDate":"2021-07-31"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_ScriptCode: Scrpc
+Input_ScriptName: 
+Input_ScriptDescription: TestScript
+Input_effectiveDate: 2021-07-10
+Input_expirationDate: 2021-07-31
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"8ae55f04-4144-4d3e-990f-e15c2ae58040",
+		"timeStamp":"2020-06-19 08:47:21",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"scriptName",
+			"message":" is a required field"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_08</t>
+  </si>
+  <si>
+    <t>Verify that the Script service is successfully updated when the scrptDesc attribute is not passed in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"refScript":
+	{
+		"scriptCode":"LAN",
+		"scriptName":"Lang",
+		"effectiveDate":"2021-07-10",
+		"expirationDate":"2021-07-31"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation",
+		"version":"1.0.0",
+		"transactionId":"5ebca8af-acd2-4122-8106-a8f4f7545f7b",
+		"timeStamp":"2020-06-19 08:47:22",
+		"statusCode":"200",
+		"message":
+		{
+			"status":"SUCCESS",
+			"internalMessage":"REFSCRIPT Details successfully updated with scriptCode :LAN",
+			"data":null
+		}
+	},
+	"data":
+	{
+		"scriptCode":"LAN"
+	}
+}</t>
+  </si>
+  <si>
+    <t>TC_09</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the user name is null or Empty in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":""
+	},
+	"refScript":
+	{
+		"scriptCode":"Scrpc",
+		"scriptName":"Tamil up",
+		"scriptDescription":"Used in more than 25 countries",
+		"effectiveDate":"2021-07-10",
+		"expirationDate":"2021-07-31"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: 
+Input_ScriptCode: Scrpc
+Input_ScriptName: Tamil up
+Input_ScriptDescription: Used in more than 25 countries
+Input_effectiveDate: 2021-07-10
+Input_expirationDate: 2021-07-31
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"8bf5493d-ee20-480c-aa14-b582ce1e2dd6",
+		"timeStamp":"2020-06-19 08:47:25",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"userName",
+			"message":" is a required field"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_10</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the scrptCd is more than 18 characters length in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"refScript":
+	{
+		"scriptCode":"TELUNGANA TELUGU AP",
+		"scriptName":"Tamil up",
+		"scriptDescription":"Used in more than 25 countries",
+		"effectiveDate":"2021-07-10",
+		"expirationDate":"2021-07-31"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_ScriptCode: TELUNGANA TELUGU AP
+Input_ScriptName: Tamil up
+Input_ScriptDescription: Used in more than 25 countries
+Input_effectiveDate: 2021-07-10
+Input_expirationDate: 2021-07-31
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"bd545e56-155c-4040-8d6c-b5ed811f7c41",
+		"timeStamp":"2020-06-19 08:47:27",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"scriptCode",
+			"message":" cannot be greater than 18 characters!"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_11</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the scrptNm is more than 256 characters length in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"refScript":
+	{
+		"scriptCode":"Scrpc",
+		"scriptName":"Milli Litre2 Milli Litre2 Milli Litre2 Milli Litre2 Milli Litre2 Milli Litre2 Milli Litre2 Milli Litre2 Milli Litre2 Milli Litre2 Milli Litre2 Milli Litre2 Milli Litre2 Milli Litre2 Milli Litre2 Milli Litre2 Milli Litre2 Milli Litre2 Milli Litre2 Milli Litre2 Milli Litre2 ",
+		"scriptDescription":"Used in more than 25 countries",
+		"effectiveDate":"2021-07-10",
+		"expirationDate":"2021-07-31"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_ScriptCode: Scrpc
+Input_ScriptName: Milli Litre2 Milli Litre2 Milli Litre2 Milli Litre2 Milli Litre2 Milli Litre2 Milli Litre2 Milli Litre2 Milli Litre2 Milli Litre2 Milli Litre2 Milli Litre2 Milli Litre2 Milli Litre2 Milli Litre2 Milli Litre2 Milli Litre2 Milli Litre2 Milli Litre2 Milli Litre2 Milli Litre2 
+Input_ScriptDescription: Used in more than 25 countries
+Input_effectiveDate: 2021-07-10
+Input_expirationDate: 2021-07-31
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"9a20f1be-1c35-48e3-8d9a-2f94a32c4df2",
+		"timeStamp":"2020-06-19 08:47:28",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"scriptName",
+			"message":" cannot be greater than 256 characters"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_12</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the scrptDesc is more than 4000 characters length in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"refScript":
+	{
+		"scriptCode":"Scrpc",
+		"scriptName":"Tamil up",
+		"scriptDescription":"To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To mdeasure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquiTo measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquiTo measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquiTo measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liqui",
+		"effectiveDate":"2021-07-10",
+		"expirationDate":"2021-07-31"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_ScriptCode: Scrpc
+Input_ScriptName: Tamil up
+Input_ScriptDescription: To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To mdeasure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquiTo measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquiTo measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquiTo measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liquid items To measure the liqui
+Input_effectiveDate: 2021-07-10
+Input_expirationDate: 2021-07-31
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"af25ea6c-2791-46f5-9e34-d59ccbb1f383",
+		"timeStamp":"2020-06-19 08:47:29",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"scriptDescription",
+			"message":"scriptDesc cannot be greater than 4000 characters"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_13</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the User Name is more than 25 characters length in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"AutomationAutomation123456"
+	},
+	"refScript":
+	{
+		"scriptCode":"Scrpc",
+		"scriptName":"Tamil up",
+		"scriptDescription":"Used in more than 25 countries",
+		"effectiveDate":"2021-07-10",
+		"expirationDate":"2021-07-31"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: AutomationAutomation123456
+Input_ScriptCode: Scrpc
+Input_ScriptName: Tamil up
+Input_ScriptDescription: Used in more than 25 countries
+Input_effectiveDate: 2021-07-10
+Input_expirationDate: 2021-07-31
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"a1bb6aa4-90ae-4ba8-960b-ae04617c894a",
+		"timeStamp":"2020-06-19 08:47:31",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"userName",
+			"message":" cannot be greater than 25 characters"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_14</t>
+  </si>
+  <si>
+    <t>Verify that the Exception is received when the URI is not correct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"refScript":
+	{
+		"scriptCode":"Scrpc",
+		"scriptName":"Tamil up",
+		"scriptDescription":"Used in more than 25 countries",
+		"effectiveDate":"2021-07-10",
+		"expirationDate":"2021-07-31"
+	}
+}</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 404 Not Found</t>
+  </si>
+  <si>
+    <t>404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"c080188e-1f19-4f45-9fe4-6d5dc207e107",
+		"timeStamp":"2020-06-19 08:47:32",
+		"statusCode":"404",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Exception",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"Error",
+			"message":"Could not find the PUT method for URL /v1/"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_15</t>
+  </si>
+  <si>
+    <t>Verify that the Script service is successfully updated when valid values are passed for all attributes with exact length in JSON Request.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"379181337918133791813"
+	},
+	"refScript":
+	{
+		"scriptCode":"tsewqasdfghjkpoiuy",
+		"scriptName":"dfghjkpoivytrewqasdfghghjkpoiuytrewqasdfghjkpoiuytrewqasjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfwqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiupoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytre",
+		"scriptDescription":"uytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiupoiuytrewqbsdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoijkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiupoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiupoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiupoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiupoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiupoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiupoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiupoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiupoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiupoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiupoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiupoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiupoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkppoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfgpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiupoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiupoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrew",
+		"effectiveDate":"2021-07-10",
+		"expirationDate":"2021-07-31"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_ScriptCode: tsewqasdfghjkpoiuy
+Input_ScriptName: dfghjkpoivytrewqasdfghghjkpoiuytrewqasdfghjkpoiuytrewqasjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfwqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiupoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytre
+Input_ScriptDescription: uytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiupoiuytrewqbsdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoijkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiupoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiupoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiupoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiupoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiupoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiupoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiupoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiupoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiupoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiupoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiupoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiupoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkppoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfgpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiupoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiupoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrew
+Input_effectiveDate: 2021-07-10
+Input_expirationDate: 2021-07-31
+Input_LastUpdateUserName: 379181337918133791813
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB_ScriptCode: tsewqasdfghjkpoiuy
+DB_ScriptName: dfghjkpoivytrewqasdfghghjkpoiuytrewqasdfghjkpoiuytrewqasjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfwqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiupoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytre
+DB_ScriptDescription: uytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiupoiuytrewqbsdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoijkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiupoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiupoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiupoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiupoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiupoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiupoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiupoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiupoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiupoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiupoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiupoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiupoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkppoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfgpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiupoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiupoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrewqasdfghjkpoiuytrew
+DB_effectiveDate: 2021-07-10
+DB_expirationDate: 2021-07-31
+DB_LastUpdateUserName: 379181337918133791813
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"379181337918133791813",
+		"version":"1.0.0",
+		"transactionId":"472b1674-e609-4d6d-981b-47396e8d0aef",
+		"timeStamp":"2020-06-19 08:47:34",
+		"statusCode":"200",
+		"message":
+		{
+			"status":"SUCCESS",
+			"internalMessage":"REFSCRIPT Details successfully updated with scriptCode :tsewqasdfghjkpoiuy",
+			"data":null
+		}
+	},
+	"data":
+	{
+		"scriptCode":"tsewqasdfghjkpoiuy"
+	}
+}</t>
+  </si>
+  <si>
+    <t>TC_16</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is displayed when the invalid scrptCd (not exist in DB) is passed in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"refScript":
+	{
+		"scriptCode":"MMM",
+		"scriptName":"TElUGU12",
+		"scriptDescription":"Used in more than 25 countries11",
+		"effectiveDate":"2021-07-10",
+		"expirationDate":"2021-07-31"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_ScriptCode: MMM
+Input_ScriptName: TElUGU12
+Input_ScriptDescription: Used in more than 25 countries11
+Input_effectiveDate: 2021-07-10
+Input_expirationDate: 2021-07-31
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"c77b0dcd-295d-4aac-a71b-62ad42bd60ae",
+		"timeStamp":"2020-06-19 08:47:37",
+		"statusCode":"404",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Resource Not Found",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"Error",
+			"message":"Record not found"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_17</t>
+  </si>
+  <si>
+    <t>Verify that the Script service is successfully updated when special characters are passed for scrptCd in JSON Request.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"refScript":
+	{
+		"scriptCode":"*&amp;^@@@!@!!",
+		"scriptName":"Script_Name33",
+		"scriptDescription":"Script_Desc14",
+		"effectiveDate":"2021-07-10",
+		"expirationDate":"2021-07-31"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_ScriptCode: *&amp;^@@@!@!!
+Input_ScriptName: Script_Name33
+Input_ScriptDescription: Script_Desc14
+Input_effectiveDate: 2021-07-10
+Input_expirationDate: 2021-07-31
+Input_LastUpdateUserName: Automation
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB_ScriptCode: *&amp;^@@@!@!!
+DB_ScriptName: Script_Name33
+DB_ScriptDescription: Script_Desc14
+DB_effectiveDate: 2021-07-10
+DB_expirationDate: 2021-07-31
+DB_LastUpdateUserName: Automation
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation",
+		"version":"1.0.0",
+		"transactionId":"2e3f6bf6-3ee8-4378-9485-703187a3e2f6",
+		"timeStamp":"2020-06-19 08:47:38",
+		"statusCode":"200",
+		"message":
+		{
+			"status":"SUCCESS",
+			"internalMessage":"REFSCRIPT Details successfully updated with scriptCode :*&amp;^@@@!@!!",
+			"data":null
+		}
+	},
+	"data":
+	{
+		"scriptCode":"*&amp;^@@@!@!!"
+	}
+}</t>
+  </si>
+  <si>
+    <t>TC_18</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when if any comma/bracket is missing in request then we will get the JSON parse error: Unexpected character in response</t>
+  </si>
+  <si>
+    <t>Post</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"refScript":
+	{
+		"scriptCode":"LAN",
+		"scriptName":"Lang""scriptDescription":"Language",
+		"effectiveDate":"2021-07-10",
+		"expirationDate":"2021-07-31"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_ScriptCode: LAN
+Input_ScriptName: Lang
+Input_ScriptDescription: Language
+Input_effectiveDate: 2021-07-10
+Input_expirationDate: 2021-07-31
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"080f662e-615f-4358-97be-c7af455794c8",
+		"timeStamp":"2020-06-19 08:47:41",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Json Parser Error",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"Error",
+			"message":"JSON parse error: Unexpected character ('\"' (code 34)): was expecting comma to separate Object entries"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_19</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when we use POST url but selecting GET method</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 405 Method Not Allowed</t>
+  </si>
+  <si>
+    <t>405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"0b827c1e-9ca7-4ab1-9e7a-4915905df51c",
+		"timeStamp":"2020-06-19 08:47:42",
+		"statusCode":"405",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"No Such API Exists",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"Error",
+			"message":"Request method 'GET' not supported"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_20</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when missing HTTP Header X-CSR-SECURITY_TOKEN</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 401 Unauthorized</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"timeStamp":"2020-06-19T08:47:44.317+0000",
+		"statusCode":"401",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Security Error",
+			"data":
+			{
+				"errorMessage":"Exception occurred in Security Filter"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"NA",
+			"message":"Missing HTTP header X-CSR-SECURITY_TOKEN"
+		}
+	]
+}</t>
   </si>
 </sst>
 </file>
@@ -122,7 +1277,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="244">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -135,6 +1290,1161 @@
       <sz val="11.0"/>
       <color indexed="9"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -258,7 +2568,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="244">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -294,6 +2604,699 @@
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -308,17 +3311,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5859375" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.4375" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.24609375" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="35.15625" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="23.4375" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.4375" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.24609375" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="15.37890625" collapsed="false"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="23.4375" collapsed="false"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5859375" collapsed="false"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.82421875" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5859375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.24609375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="35.15625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.24609375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="15.37890625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5859375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.82421875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="30.0" customHeight="true">
@@ -392,6 +3395,762 @@
       </c>
       <c r="L2"/>
     </row>
+    <row r="3">
+      <c r="A3" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s" s="14">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s" s="15">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s" s="16">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s" s="17">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s" s="18">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s" s="19">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s" s="20">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s" s="21">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s" s="22">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s" s="23">
+        <v>25</v>
+      </c>
+      <c r="L3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="24">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s" s="25">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s" s="26">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s" s="27">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s" s="28">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s" s="29">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s" s="30">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s" s="31">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s" s="32">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s" s="33">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s" s="34">
+        <v>21</v>
+      </c>
+      <c r="L4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="35">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s" s="36">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s" s="37">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s" s="38">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s" s="39">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s" s="40">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s" s="41">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s" s="42">
+        <v>36</v>
+      </c>
+      <c r="I5" t="s" s="43">
+        <v>37</v>
+      </c>
+      <c r="J5" t="s" s="44">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s" s="45">
+        <v>21</v>
+      </c>
+      <c r="L5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="46">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s" s="47">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s" s="48">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s" s="49">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s" s="50">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s" s="51">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s" s="52">
+        <v>35</v>
+      </c>
+      <c r="H6" t="s" s="53">
+        <v>36</v>
+      </c>
+      <c r="I6" t="s" s="54">
+        <v>42</v>
+      </c>
+      <c r="J6" t="s" s="55">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s" s="56">
+        <v>21</v>
+      </c>
+      <c r="L6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="57">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s" s="58">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s" s="59">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s" s="60">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s" s="61">
+        <v>46</v>
+      </c>
+      <c r="F7" t="s" s="62">
+        <v>47</v>
+      </c>
+      <c r="G7" t="s" s="63">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s" s="64">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s" s="65">
+        <v>48</v>
+      </c>
+      <c r="J7" t="s" s="66">
+        <v>20</v>
+      </c>
+      <c r="K7" t="s" s="67">
+        <v>21</v>
+      </c>
+      <c r="L7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="68">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s" s="69">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s" s="70">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s" s="71">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s" s="72">
+        <v>52</v>
+      </c>
+      <c r="F8" t="s" s="73">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s" s="74">
+        <v>35</v>
+      </c>
+      <c r="H8" t="s" s="75">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s" s="76">
+        <v>53</v>
+      </c>
+      <c r="J8" t="s" s="77">
+        <v>20</v>
+      </c>
+      <c r="K8" t="s" s="78">
+        <v>21</v>
+      </c>
+      <c r="L8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="79">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s" s="80">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s" s="81">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s" s="82">
+        <v>56</v>
+      </c>
+      <c r="E9" t="s" s="83">
+        <v>57</v>
+      </c>
+      <c r="F9" t="s" s="84">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s" s="85">
+        <v>35</v>
+      </c>
+      <c r="H9" t="s" s="86">
+        <v>36</v>
+      </c>
+      <c r="I9" t="s" s="87">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s" s="88">
+        <v>20</v>
+      </c>
+      <c r="K9" t="s" s="89">
+        <v>21</v>
+      </c>
+      <c r="L9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="90">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s" s="91">
+        <v>60</v>
+      </c>
+      <c r="C10" t="s" s="92">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s" s="93">
+        <v>61</v>
+      </c>
+      <c r="E10" t="s" s="94">
+        <v>62</v>
+      </c>
+      <c r="F10" t="s" s="95">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s" s="96">
+        <v>35</v>
+      </c>
+      <c r="H10" t="s" s="97">
+        <v>36</v>
+      </c>
+      <c r="I10" t="s" s="98">
+        <v>63</v>
+      </c>
+      <c r="J10" t="s" s="99">
+        <v>20</v>
+      </c>
+      <c r="K10" t="s" s="100">
+        <v>21</v>
+      </c>
+      <c r="L10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="101">
+        <v>64</v>
+      </c>
+      <c r="B11" t="s" s="102">
+        <v>65</v>
+      </c>
+      <c r="C11" t="s" s="103">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s" s="104">
+        <v>66</v>
+      </c>
+      <c r="E11" t="s" s="105">
+        <v>46</v>
+      </c>
+      <c r="F11" t="s" s="106">
+        <v>47</v>
+      </c>
+      <c r="G11" t="s" s="107">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s" s="108">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s" s="109">
+        <v>67</v>
+      </c>
+      <c r="J11" t="s" s="110">
+        <v>20</v>
+      </c>
+      <c r="K11" t="s" s="111">
+        <v>21</v>
+      </c>
+      <c r="L11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="112">
+        <v>68</v>
+      </c>
+      <c r="B12" t="s" s="113">
+        <v>69</v>
+      </c>
+      <c r="C12" t="s" s="114">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s" s="115">
+        <v>70</v>
+      </c>
+      <c r="E12" t="s" s="116">
+        <v>71</v>
+      </c>
+      <c r="F12" t="s" s="117">
+        <v>29</v>
+      </c>
+      <c r="G12" t="s" s="118">
+        <v>35</v>
+      </c>
+      <c r="H12" t="s" s="119">
+        <v>36</v>
+      </c>
+      <c r="I12" t="s" s="120">
+        <v>72</v>
+      </c>
+      <c r="J12" t="s" s="121">
+        <v>20</v>
+      </c>
+      <c r="K12" t="s" s="122">
+        <v>21</v>
+      </c>
+      <c r="L12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="123">
+        <v>73</v>
+      </c>
+      <c r="B13" t="s" s="124">
+        <v>74</v>
+      </c>
+      <c r="C13" t="s" s="125">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s" s="126">
+        <v>75</v>
+      </c>
+      <c r="E13" t="s" s="127">
+        <v>76</v>
+      </c>
+      <c r="F13" t="s" s="128">
+        <v>29</v>
+      </c>
+      <c r="G13" t="s" s="129">
+        <v>35</v>
+      </c>
+      <c r="H13" t="s" s="130">
+        <v>36</v>
+      </c>
+      <c r="I13" t="s" s="131">
+        <v>77</v>
+      </c>
+      <c r="J13" t="s" s="132">
+        <v>20</v>
+      </c>
+      <c r="K13" t="s" s="133">
+        <v>21</v>
+      </c>
+      <c r="L13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="134">
+        <v>78</v>
+      </c>
+      <c r="B14" t="s" s="135">
+        <v>79</v>
+      </c>
+      <c r="C14" t="s" s="136">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s" s="137">
+        <v>80</v>
+      </c>
+      <c r="E14" t="s" s="138">
+        <v>81</v>
+      </c>
+      <c r="F14" t="s" s="139">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s" s="140">
+        <v>35</v>
+      </c>
+      <c r="H14" t="s" s="141">
+        <v>36</v>
+      </c>
+      <c r="I14" t="s" s="142">
+        <v>82</v>
+      </c>
+      <c r="J14" t="s" s="143">
+        <v>20</v>
+      </c>
+      <c r="K14" t="s" s="144">
+        <v>21</v>
+      </c>
+      <c r="L14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="145">
+        <v>83</v>
+      </c>
+      <c r="B15" t="s" s="146">
+        <v>84</v>
+      </c>
+      <c r="C15" t="s" s="147">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s" s="148">
+        <v>85</v>
+      </c>
+      <c r="E15" t="s" s="149">
+        <v>86</v>
+      </c>
+      <c r="F15" t="s" s="150">
+        <v>29</v>
+      </c>
+      <c r="G15" t="s" s="151">
+        <v>35</v>
+      </c>
+      <c r="H15" t="s" s="152">
+        <v>36</v>
+      </c>
+      <c r="I15" t="s" s="153">
+        <v>87</v>
+      </c>
+      <c r="J15" t="s" s="154">
+        <v>20</v>
+      </c>
+      <c r="K15" t="s" s="155">
+        <v>21</v>
+      </c>
+      <c r="L15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="156">
+        <v>88</v>
+      </c>
+      <c r="B16" t="s" s="157">
+        <v>89</v>
+      </c>
+      <c r="C16" t="s" s="158">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s" s="159">
+        <v>90</v>
+      </c>
+      <c r="E16" t="s" s="160">
+        <v>91</v>
+      </c>
+      <c r="F16" t="s" s="161">
+        <v>29</v>
+      </c>
+      <c r="G16" t="s" s="162">
+        <v>35</v>
+      </c>
+      <c r="H16" t="s" s="163">
+        <v>36</v>
+      </c>
+      <c r="I16" t="s" s="164">
+        <v>92</v>
+      </c>
+      <c r="J16" t="s" s="165">
+        <v>20</v>
+      </c>
+      <c r="K16" t="s" s="166">
+        <v>21</v>
+      </c>
+      <c r="L16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="167">
+        <v>93</v>
+      </c>
+      <c r="B17" t="s" s="168">
+        <v>94</v>
+      </c>
+      <c r="C17" t="s" s="169">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s" s="170">
+        <v>95</v>
+      </c>
+      <c r="E17" t="s" s="171">
+        <v>52</v>
+      </c>
+      <c r="F17" t="s" s="172">
+        <v>29</v>
+      </c>
+      <c r="G17" t="s" s="173">
+        <v>96</v>
+      </c>
+      <c r="H17" t="s" s="174">
+        <v>97</v>
+      </c>
+      <c r="I17" t="s" s="175">
+        <v>98</v>
+      </c>
+      <c r="J17" t="s" s="176">
+        <v>20</v>
+      </c>
+      <c r="K17" t="s" s="177">
+        <v>21</v>
+      </c>
+      <c r="L17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="178">
+        <v>99</v>
+      </c>
+      <c r="B18" t="s" s="179">
+        <v>100</v>
+      </c>
+      <c r="C18" t="s" s="180">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s" s="181">
+        <v>101</v>
+      </c>
+      <c r="E18" t="s" s="182">
+        <v>102</v>
+      </c>
+      <c r="F18" t="s" s="183">
+        <v>103</v>
+      </c>
+      <c r="G18" t="s" s="184">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s" s="185">
+        <v>18</v>
+      </c>
+      <c r="I18" t="s" s="186">
+        <v>104</v>
+      </c>
+      <c r="J18" t="s" s="187">
+        <v>20</v>
+      </c>
+      <c r="K18" t="s" s="188">
+        <v>21</v>
+      </c>
+      <c r="L18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="189">
+        <v>105</v>
+      </c>
+      <c r="B19" t="s" s="190">
+        <v>106</v>
+      </c>
+      <c r="C19" t="s" s="191">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s" s="192">
+        <v>107</v>
+      </c>
+      <c r="E19" t="s" s="193">
+        <v>108</v>
+      </c>
+      <c r="F19" t="s" s="194">
+        <v>29</v>
+      </c>
+      <c r="G19" t="s" s="195">
+        <v>96</v>
+      </c>
+      <c r="H19" t="s" s="196">
+        <v>97</v>
+      </c>
+      <c r="I19" t="s" s="197">
+        <v>109</v>
+      </c>
+      <c r="J19" t="s" s="198">
+        <v>20</v>
+      </c>
+      <c r="K19" t="s" s="199">
+        <v>21</v>
+      </c>
+      <c r="L19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="200">
+        <v>110</v>
+      </c>
+      <c r="B20" t="s" s="201">
+        <v>111</v>
+      </c>
+      <c r="C20" t="s" s="202">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s" s="203">
+        <v>112</v>
+      </c>
+      <c r="E20" t="s" s="204">
+        <v>113</v>
+      </c>
+      <c r="F20" t="s" s="205">
+        <v>114</v>
+      </c>
+      <c r="G20" t="s" s="206">
+        <v>17</v>
+      </c>
+      <c r="H20" t="s" s="207">
+        <v>18</v>
+      </c>
+      <c r="I20" t="s" s="208">
+        <v>115</v>
+      </c>
+      <c r="J20" t="s" s="209">
+        <v>20</v>
+      </c>
+      <c r="K20" t="s" s="210">
+        <v>21</v>
+      </c>
+      <c r="L20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="211">
+        <v>116</v>
+      </c>
+      <c r="B21" t="s" s="212">
+        <v>117</v>
+      </c>
+      <c r="C21" t="s" s="213">
+        <v>118</v>
+      </c>
+      <c r="D21" t="s" s="214">
+        <v>119</v>
+      </c>
+      <c r="E21" t="s" s="215">
+        <v>120</v>
+      </c>
+      <c r="F21" t="s" s="216">
+        <v>29</v>
+      </c>
+      <c r="G21" t="s" s="217">
+        <v>35</v>
+      </c>
+      <c r="H21" t="s" s="218">
+        <v>36</v>
+      </c>
+      <c r="I21" t="s" s="219">
+        <v>121</v>
+      </c>
+      <c r="J21" t="s" s="220">
+        <v>20</v>
+      </c>
+      <c r="K21" t="s" s="221">
+        <v>21</v>
+      </c>
+      <c r="L21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="222">
+        <v>122</v>
+      </c>
+      <c r="B22" t="s" s="223">
+        <v>123</v>
+      </c>
+      <c r="C22" t="s" s="224">
+        <v>118</v>
+      </c>
+      <c r="D22" t="s" s="225">
+        <v>14</v>
+      </c>
+      <c r="E22" t="s" s="226">
+        <v>120</v>
+      </c>
+      <c r="F22" t="s" s="227">
+        <v>29</v>
+      </c>
+      <c r="G22" t="s" s="228">
+        <v>124</v>
+      </c>
+      <c r="H22" t="s" s="229">
+        <v>125</v>
+      </c>
+      <c r="I22" t="s" s="230">
+        <v>126</v>
+      </c>
+      <c r="J22" t="s" s="231">
+        <v>20</v>
+      </c>
+      <c r="K22" t="s" s="232">
+        <v>21</v>
+      </c>
+      <c r="L22"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="233">
+        <v>127</v>
+      </c>
+      <c r="B23" t="s" s="234">
+        <v>128</v>
+      </c>
+      <c r="C23" t="s" s="235">
+        <v>118</v>
+      </c>
+      <c r="D23" t="s" s="236">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s" s="237">
+        <v>120</v>
+      </c>
+      <c r="F23" t="s" s="238">
+        <v>29</v>
+      </c>
+      <c r="G23" t="s" s="239">
+        <v>129</v>
+      </c>
+      <c r="H23" t="s" s="240">
+        <v>130</v>
+      </c>
+      <c r="I23" t="s" s="241">
+        <v>131</v>
+      </c>
+      <c r="J23" t="s" s="242">
+        <v>20</v>
+      </c>
+      <c r="K23" t="s" s="243">
+        <v>21</v>
+      </c>
+      <c r="L23"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
